--- a/convert/Cong_thang_3.xlsx
+++ b/convert/Cong_thang_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="466">
   <si>
     <t>2023-03-01</t>
   </si>
@@ -1966,9 +1966,6 @@
       <c r="N10">
         <v>4</v>
       </c>
-      <c r="P10">
-        <v>12</v>
-      </c>
       <c r="Q10" t="s">
         <v>33</v>
       </c>
@@ -2174,9 +2171,6 @@
       <c r="AC12" t="s">
         <v>43</v>
       </c>
-      <c r="AD12">
-        <v>12</v>
-      </c>
       <c r="AE12" t="s">
         <v>33</v>
       </c>
@@ -2382,9 +2376,6 @@
       <c r="AB14">
         <v>4</v>
       </c>
-      <c r="AD14">
-        <v>8</v>
-      </c>
       <c r="AE14" t="s">
         <v>32</v>
       </c>
@@ -2486,9 +2477,6 @@
       <c r="AB15">
         <v>2</v>
       </c>
-      <c r="AD15">
-        <v>12</v>
-      </c>
       <c r="AE15" t="s">
         <v>32</v>
       </c>
@@ -2975,9 +2963,6 @@
       <c r="AB21">
         <v>2</v>
       </c>
-      <c r="AD21">
-        <v>12</v>
-      </c>
       <c r="AE21" t="s">
         <v>33</v>
       </c>
@@ -3043,9 +3028,6 @@
       <c r="N22">
         <v>4</v>
       </c>
-      <c r="P22">
-        <v>12</v>
-      </c>
       <c r="Q22" t="s">
         <v>32</v>
       </c>
@@ -3284,9 +3266,6 @@
       <c r="AA24" t="s">
         <v>32</v>
       </c>
-      <c r="AD24">
-        <v>12</v>
-      </c>
       <c r="AE24" t="s">
         <v>33</v>
       </c>
@@ -3453,9 +3432,6 @@
       <c r="N26">
         <v>1</v>
       </c>
-      <c r="P26">
-        <v>9.5</v>
-      </c>
       <c r="Q26" t="s">
         <v>32</v>
       </c>
@@ -3489,14 +3465,11 @@
       <c r="AB26">
         <v>2</v>
       </c>
-      <c r="AD26">
-        <v>9.5</v>
-      </c>
       <c r="AE26" t="s">
         <v>32</v>
       </c>
       <c r="AF26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG26" t="s">
         <v>32</v>
@@ -3765,9 +3738,6 @@
       <c r="N29">
         <v>3</v>
       </c>
-      <c r="P29">
-        <v>12</v>
-      </c>
       <c r="Q29" t="s">
         <v>32</v>
       </c>
@@ -3798,14 +3768,11 @@
       <c r="AA29" t="s">
         <v>22</v>
       </c>
-      <c r="AD29">
-        <v>12</v>
-      </c>
       <c r="AE29" t="s">
         <v>32</v>
       </c>
       <c r="AF29">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG29" t="s">
         <v>32</v>
@@ -4118,9 +4085,6 @@
       <c r="N33">
         <v>4</v>
       </c>
-      <c r="P33">
-        <v>12</v>
-      </c>
       <c r="Q33" t="s">
         <v>32</v>
       </c>
@@ -4156,9 +4120,6 @@
       </c>
       <c r="AB33">
         <v>4</v>
-      </c>
-      <c r="AD33">
-        <v>12</v>
       </c>
       <c r="AE33" t="s">
         <v>33</v>
@@ -4831,9 +4792,6 @@
       <c r="AB40">
         <v>4</v>
       </c>
-      <c r="AD40">
-        <v>12</v>
-      </c>
       <c r="AE40" t="s">
         <v>33</v>
       </c>
@@ -5003,9 +4961,6 @@
       <c r="N42">
         <v>2</v>
       </c>
-      <c r="P42">
-        <v>10</v>
-      </c>
       <c r="Q42" t="s">
         <v>32</v>
       </c>
@@ -5531,9 +5486,6 @@
       <c r="N48">
         <v>4</v>
       </c>
-      <c r="P48">
-        <v>12</v>
-      </c>
       <c r="Q48" t="s">
         <v>32</v>
       </c>
@@ -5566,9 +5518,6 @@
       </c>
       <c r="AB48">
         <v>4</v>
-      </c>
-      <c r="AD48">
-        <v>12</v>
       </c>
       <c r="AE48" t="s">
         <v>33</v>
@@ -6851,9 +6800,6 @@
       <c r="AC63" t="s">
         <v>43</v>
       </c>
-      <c r="AD63">
-        <v>12</v>
-      </c>
       <c r="AE63" t="s">
         <v>32</v>
       </c>
@@ -7005,30 +6951,18 @@
       <c r="I65" t="s">
         <v>38</v>
       </c>
-      <c r="J65">
-        <v>4</v>
-      </c>
       <c r="K65" t="s">
         <v>38</v>
       </c>
-      <c r="L65">
-        <v>4</v>
-      </c>
       <c r="M65" t="s">
         <v>38</v>
       </c>
       <c r="Q65" t="s">
         <v>38</v>
       </c>
-      <c r="R65">
-        <v>4</v>
-      </c>
       <c r="S65" t="s">
         <v>38</v>
       </c>
-      <c r="T65">
-        <v>4</v>
-      </c>
       <c r="U65" t="s">
         <v>38</v>
       </c>
@@ -7038,14 +6972,8 @@
       <c r="Y65" t="s">
         <v>38</v>
       </c>
-      <c r="Z65">
-        <v>4</v>
-      </c>
       <c r="AA65" t="s">
         <v>38</v>
-      </c>
-      <c r="AD65">
-        <v>8</v>
       </c>
       <c r="AE65" t="s">
         <v>38</v>
@@ -7139,9 +7067,6 @@
       <c r="AB66">
         <v>1</v>
       </c>
-      <c r="AD66">
-        <v>12</v>
-      </c>
       <c r="AE66" t="s">
         <v>33</v>
       </c>
@@ -7823,6 +7748,9 @@
       <c r="N75">
         <v>4</v>
       </c>
+      <c r="O75" t="s">
+        <v>22</v>
+      </c>
       <c r="Q75" t="s">
         <v>33</v>
       </c>
@@ -8159,6 +8087,9 @@
       <c r="AB78">
         <v>4</v>
       </c>
+      <c r="AC78" t="s">
+        <v>22</v>
+      </c>
       <c r="AE78" t="s">
         <v>32</v>
       </c>
@@ -8227,9 +8158,6 @@
       <c r="N79">
         <v>4</v>
       </c>
-      <c r="P79">
-        <v>12</v>
-      </c>
       <c r="Q79" t="s">
         <v>33</v>
       </c>
@@ -8265,9 +8193,6 @@
       </c>
       <c r="AB79">
         <v>4</v>
-      </c>
-      <c r="AD79">
-        <v>12</v>
       </c>
       <c r="AE79" t="s">
         <v>32</v>
@@ -8432,6 +8357,9 @@
       <c r="AB81">
         <v>3.5</v>
       </c>
+      <c r="AC81" t="s">
+        <v>22</v>
+      </c>
       <c r="AE81" t="s">
         <v>32</v>
       </c>
@@ -8992,6 +8920,9 @@
       <c r="N88">
         <v>4</v>
       </c>
+      <c r="O88" t="s">
+        <v>22</v>
+      </c>
       <c r="Q88" t="s">
         <v>32</v>
       </c>
@@ -9416,9 +9347,6 @@
       <c r="AB93">
         <v>4</v>
       </c>
-      <c r="AD93">
-        <v>12</v>
-      </c>
       <c r="AE93" t="s">
         <v>33</v>
       </c>
@@ -9514,6 +9442,9 @@
       <c r="AB94">
         <v>3.5</v>
       </c>
+      <c r="AC94" t="s">
+        <v>22</v>
+      </c>
       <c r="AE94" t="s">
         <v>32</v>
       </c>
@@ -9644,9 +9575,6 @@
       <c r="N96">
         <v>4</v>
       </c>
-      <c r="P96">
-        <v>12</v>
-      </c>
       <c r="Q96" t="s">
         <v>33</v>
       </c>
@@ -9751,6 +9679,9 @@
       <c r="N97">
         <v>4</v>
       </c>
+      <c r="O97" t="s">
+        <v>22</v>
+      </c>
       <c r="Q97" t="s">
         <v>33</v>
       </c>
@@ -9843,6 +9774,9 @@
       <c r="M98" t="s">
         <v>32</v>
       </c>
+      <c r="O98" t="s">
+        <v>22</v>
+      </c>
       <c r="Q98" t="s">
         <v>32</v>
       </c>
@@ -9976,6 +9910,9 @@
       <c r="N100">
         <v>4</v>
       </c>
+      <c r="O100" t="s">
+        <v>22</v>
+      </c>
       <c r="Q100" t="s">
         <v>32</v>
       </c>
@@ -10062,6 +9999,9 @@
       <c r="M101" t="s">
         <v>38</v>
       </c>
+      <c r="O101" t="s">
+        <v>22</v>
+      </c>
       <c r="Q101" t="s">
         <v>38</v>
       </c>
@@ -10133,9 +10073,6 @@
       <c r="N102">
         <v>4</v>
       </c>
-      <c r="P102">
-        <v>12</v>
-      </c>
       <c r="Q102" t="s">
         <v>32</v>
       </c>
@@ -10171,9 +10108,6 @@
       </c>
       <c r="AB102">
         <v>4</v>
-      </c>
-      <c r="AD102">
-        <v>12</v>
       </c>
       <c r="AE102" t="s">
         <v>32</v>
@@ -10465,6 +10399,9 @@
       <c r="AB106">
         <v>4</v>
       </c>
+      <c r="AC106" t="s">
+        <v>22</v>
+      </c>
       <c r="AE106" t="s">
         <v>32</v>
       </c>
@@ -10521,6 +10458,9 @@
       <c r="M107" t="s">
         <v>23</v>
       </c>
+      <c r="O107" t="s">
+        <v>22</v>
+      </c>
       <c r="Q107" t="s">
         <v>38</v>
       </c>
@@ -10538,6 +10478,9 @@
       </c>
       <c r="AA107" t="s">
         <v>23</v>
+      </c>
+      <c r="AC107" t="s">
+        <v>22</v>
       </c>
       <c r="AE107" t="s">
         <v>22</v>
@@ -10595,6 +10538,9 @@
       <c r="N108">
         <v>4</v>
       </c>
+      <c r="O108" t="s">
+        <v>22</v>
+      </c>
       <c r="Q108" t="s">
         <v>32</v>
       </c>
@@ -10621,6 +10567,9 @@
       </c>
       <c r="AB108">
         <v>4</v>
+      </c>
+      <c r="AC108" t="s">
+        <v>22</v>
       </c>
       <c r="AE108" t="s">
         <v>22</v>
@@ -10687,6 +10636,9 @@
       <c r="N109">
         <v>4</v>
       </c>
+      <c r="O109" t="s">
+        <v>22</v>
+      </c>
       <c r="Q109" t="s">
         <v>33</v>
       </c>
@@ -10722,6 +10674,9 @@
       </c>
       <c r="AB109">
         <v>4</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>22</v>
       </c>
       <c r="AE109" t="s">
         <v>32</v>
@@ -10782,6 +10737,9 @@
       <c r="M110" t="s">
         <v>22</v>
       </c>
+      <c r="O110" t="s">
+        <v>22</v>
+      </c>
       <c r="Q110" t="s">
         <v>33</v>
       </c>
@@ -10813,6 +10771,9 @@
         <v>4</v>
       </c>
       <c r="AA110" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC110" t="s">
         <v>22</v>
       </c>
       <c r="AE110" t="s">
@@ -10883,6 +10844,9 @@
       <c r="N111">
         <v>4</v>
       </c>
+      <c r="O111" t="s">
+        <v>22</v>
+      </c>
       <c r="Q111" t="s">
         <v>32</v>
       </c>
@@ -10918,6 +10882,9 @@
       </c>
       <c r="AB111">
         <v>4</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>22</v>
       </c>
       <c r="AE111" t="s">
         <v>22</v>
@@ -10984,6 +10951,9 @@
       <c r="N112">
         <v>4</v>
       </c>
+      <c r="O112" t="s">
+        <v>22</v>
+      </c>
       <c r="Q112" t="s">
         <v>32</v>
       </c>
@@ -11019,6 +10989,9 @@
       </c>
       <c r="AB112">
         <v>4</v>
+      </c>
+      <c r="AC112" t="s">
+        <v>22</v>
       </c>
       <c r="AE112" t="s">
         <v>33</v>
@@ -11088,6 +11061,9 @@
       <c r="N113">
         <v>4</v>
       </c>
+      <c r="O113" t="s">
+        <v>22</v>
+      </c>
       <c r="Q113" t="s">
         <v>33</v>
       </c>
@@ -11119,6 +11095,9 @@
         <v>4</v>
       </c>
       <c r="AA113" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC113" t="s">
         <v>22</v>
       </c>
       <c r="AE113" t="s">
@@ -11171,17 +11150,14 @@
       <c r="I114" t="s">
         <v>38</v>
       </c>
-      <c r="J114">
-        <v>4</v>
-      </c>
       <c r="K114" t="s">
         <v>38</v>
       </c>
       <c r="M114" t="s">
         <v>38</v>
       </c>
-      <c r="N114">
-        <v>2</v>
+      <c r="O114" t="s">
+        <v>22</v>
       </c>
       <c r="Q114" t="s">
         <v>38</v>
@@ -11195,13 +11171,13 @@
       <c r="W114" t="s">
         <v>34</v>
       </c>
-      <c r="X114">
-        <v>4</v>
-      </c>
       <c r="Y114" t="s">
         <v>38</v>
       </c>
       <c r="AA114" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC114" t="s">
         <v>22</v>
       </c>
       <c r="AE114" t="s">
@@ -11260,9 +11236,6 @@
       <c r="N115">
         <v>4</v>
       </c>
-      <c r="P115">
-        <v>16</v>
-      </c>
       <c r="Q115" t="s">
         <v>33</v>
       </c>
@@ -11298,6 +11271,9 @@
       </c>
       <c r="AB115">
         <v>4</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>22</v>
       </c>
       <c r="AE115" t="s">
         <v>32</v>
@@ -11361,6 +11337,9 @@
       <c r="M116" t="s">
         <v>22</v>
       </c>
+      <c r="O116" t="s">
+        <v>22</v>
+      </c>
       <c r="Q116" t="s">
         <v>32</v>
       </c>
@@ -11393,6 +11372,9 @@
       </c>
       <c r="AB116">
         <v>4</v>
+      </c>
+      <c r="AC116" t="s">
+        <v>22</v>
       </c>
       <c r="AE116" t="s">
         <v>32</v>
@@ -11456,6 +11438,9 @@
       <c r="M117" t="s">
         <v>22</v>
       </c>
+      <c r="O117" t="s">
+        <v>22</v>
+      </c>
       <c r="Q117" t="s">
         <v>32</v>
       </c>
@@ -11482,6 +11467,9 @@
       </c>
       <c r="AB117">
         <v>4</v>
+      </c>
+      <c r="AC117" t="s">
+        <v>22</v>
       </c>
       <c r="AE117" t="s">
         <v>32</v>
@@ -11542,9 +11530,6 @@
       <c r="N118">
         <v>4</v>
       </c>
-      <c r="P118">
-        <v>16</v>
-      </c>
       <c r="Q118" t="s">
         <v>33</v>
       </c>
@@ -11577,6 +11562,9 @@
       </c>
       <c r="AB118">
         <v>4</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>22</v>
       </c>
       <c r="AE118" t="s">
         <v>32</v>
@@ -11634,6 +11622,9 @@
       <c r="M119" t="s">
         <v>23</v>
       </c>
+      <c r="O119" t="s">
+        <v>22</v>
+      </c>
       <c r="Q119" t="s">
         <v>38</v>
       </c>
@@ -11651,6 +11642,9 @@
       </c>
       <c r="AA119" t="s">
         <v>23</v>
+      </c>
+      <c r="AC119" t="s">
+        <v>22</v>
       </c>
       <c r="AE119" t="s">
         <v>38</v>
@@ -11705,6 +11699,9 @@
       <c r="N120">
         <v>4</v>
       </c>
+      <c r="O120" t="s">
+        <v>22</v>
+      </c>
       <c r="Q120" t="s">
         <v>245</v>
       </c>
@@ -11725,6 +11722,9 @@
       </c>
       <c r="AA120" t="s">
         <v>66</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>22</v>
       </c>
       <c r="AE120" t="s">
         <v>32</v>
@@ -11782,6 +11782,9 @@
       <c r="N121">
         <v>3</v>
       </c>
+      <c r="O121" t="s">
+        <v>22</v>
+      </c>
       <c r="Q121" t="s">
         <v>32</v>
       </c>
@@ -11817,6 +11820,9 @@
       </c>
       <c r="AB121">
         <v>3</v>
+      </c>
+      <c r="AC121" t="s">
+        <v>22</v>
       </c>
       <c r="AE121" t="s">
         <v>32</v>
@@ -11865,17 +11871,14 @@
       <c r="I122" t="s">
         <v>38</v>
       </c>
-      <c r="J122">
-        <v>4</v>
-      </c>
       <c r="K122" t="s">
         <v>38</v>
       </c>
       <c r="M122" t="s">
         <v>38</v>
       </c>
-      <c r="N122">
-        <v>2</v>
+      <c r="O122" t="s">
+        <v>22</v>
       </c>
       <c r="Q122" t="s">
         <v>38</v>
@@ -11889,14 +11892,14 @@
       <c r="W122" t="s">
         <v>38</v>
       </c>
-      <c r="X122">
-        <v>4</v>
-      </c>
       <c r="Y122" t="s">
         <v>38</v>
       </c>
       <c r="AA122" t="s">
         <v>38</v>
+      </c>
+      <c r="AC122" t="s">
+        <v>22</v>
       </c>
       <c r="AE122" t="s">
         <v>38</v>
@@ -11954,9 +11957,6 @@
       <c r="N123">
         <v>4</v>
       </c>
-      <c r="P123">
-        <v>12</v>
-      </c>
       <c r="Q123" t="s">
         <v>33</v>
       </c>
@@ -11992,6 +11992,9 @@
       </c>
       <c r="AB123">
         <v>4</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>22</v>
       </c>
       <c r="AE123" t="s">
         <v>32</v>
@@ -12049,6 +12052,9 @@
       <c r="M124" t="s">
         <v>38</v>
       </c>
+      <c r="O124" t="s">
+        <v>22</v>
+      </c>
       <c r="Q124" t="s">
         <v>38</v>
       </c>
@@ -12066,6 +12072,9 @@
       </c>
       <c r="AA124" t="s">
         <v>23</v>
+      </c>
+      <c r="AC124" t="s">
+        <v>22</v>
       </c>
       <c r="AE124" t="s">
         <v>38</v>
@@ -12123,6 +12132,9 @@
       <c r="N125">
         <v>4</v>
       </c>
+      <c r="O125" t="s">
+        <v>22</v>
+      </c>
       <c r="Q125" t="s">
         <v>32</v>
       </c>
@@ -12149,6 +12161,9 @@
       </c>
       <c r="AA125" t="s">
         <v>32</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>22</v>
       </c>
       <c r="AE125" t="s">
         <v>34</v>
@@ -12194,6 +12209,9 @@
       <c r="M126" t="s">
         <v>38</v>
       </c>
+      <c r="O126" t="s">
+        <v>22</v>
+      </c>
       <c r="Q126" t="s">
         <v>38</v>
       </c>
@@ -12211,6 +12229,9 @@
       </c>
       <c r="AA126" t="s">
         <v>23</v>
+      </c>
+      <c r="AC126" t="s">
+        <v>22</v>
       </c>
       <c r="AE126" t="s">
         <v>38</v>
@@ -12268,8 +12289,8 @@
       <c r="N127">
         <v>4</v>
       </c>
-      <c r="P127">
-        <v>12</v>
+      <c r="O127" t="s">
+        <v>22</v>
       </c>
       <c r="Q127" t="s">
         <v>33</v>
@@ -12372,8 +12393,8 @@
       <c r="N128">
         <v>4</v>
       </c>
-      <c r="P128">
-        <v>8</v>
+      <c r="O128" t="s">
+        <v>22</v>
       </c>
       <c r="Q128" t="s">
         <v>32</v>
@@ -12410,6 +12431,9 @@
       </c>
       <c r="AB128">
         <v>4</v>
+      </c>
+      <c r="AC128" t="s">
+        <v>22</v>
       </c>
       <c r="AE128" t="s">
         <v>33</v>
@@ -12512,6 +12536,9 @@
       <c r="AB129">
         <v>4</v>
       </c>
+      <c r="AC129" t="s">
+        <v>22</v>
+      </c>
       <c r="AE129" t="s">
         <v>22</v>
       </c>
@@ -12577,6 +12604,9 @@
       <c r="N130">
         <v>4</v>
       </c>
+      <c r="O130" t="s">
+        <v>22</v>
+      </c>
       <c r="Q130" t="s">
         <v>32</v>
       </c>
@@ -12613,8 +12643,8 @@
       <c r="AB130">
         <v>4</v>
       </c>
-      <c r="AD130">
-        <v>11</v>
+      <c r="AC130" t="s">
+        <v>22</v>
       </c>
       <c r="AE130" t="s">
         <v>32</v>
@@ -12684,6 +12714,9 @@
       <c r="N131">
         <v>4</v>
       </c>
+      <c r="O131" t="s">
+        <v>22</v>
+      </c>
       <c r="Q131" t="s">
         <v>32</v>
       </c>
@@ -12719,6 +12752,9 @@
       </c>
       <c r="AB131">
         <v>4</v>
+      </c>
+      <c r="AC131" t="s">
+        <v>22</v>
       </c>
       <c r="AE131" t="s">
         <v>32</v>
@@ -12788,6 +12824,9 @@
       <c r="N132">
         <v>4</v>
       </c>
+      <c r="O132" t="s">
+        <v>22</v>
+      </c>
       <c r="Q132" t="s">
         <v>33</v>
       </c>
@@ -12820,6 +12859,9 @@
       </c>
       <c r="AB132">
         <v>4</v>
+      </c>
+      <c r="AC132" t="s">
+        <v>22</v>
       </c>
       <c r="AE132" t="s">
         <v>22</v>
@@ -12874,6 +12916,9 @@
       <c r="M133" t="s">
         <v>22</v>
       </c>
+      <c r="O133" t="s">
+        <v>22</v>
+      </c>
       <c r="Q133" t="s">
         <v>22</v>
       </c>
@@ -12890,6 +12935,9 @@
         <v>22</v>
       </c>
       <c r="AA133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC133" t="s">
         <v>22</v>
       </c>
       <c r="AE133" t="s">
@@ -12936,6 +12984,9 @@
       <c r="M134" t="s">
         <v>22</v>
       </c>
+      <c r="O134" t="s">
+        <v>22</v>
+      </c>
       <c r="Q134" t="s">
         <v>22</v>
       </c>
@@ -12953,6 +13004,9 @@
       </c>
       <c r="AA134" t="s">
         <v>38</v>
+      </c>
+      <c r="AC134" t="s">
+        <v>22</v>
       </c>
       <c r="AE134" t="s">
         <v>38</v>
@@ -13010,6 +13064,9 @@
       <c r="N135">
         <v>4</v>
       </c>
+      <c r="O135" t="s">
+        <v>22</v>
+      </c>
       <c r="Q135" t="s">
         <v>32</v>
       </c>
@@ -13030,6 +13087,9 @@
       </c>
       <c r="AA135" t="s">
         <v>32</v>
+      </c>
+      <c r="AC135" t="s">
+        <v>22</v>
       </c>
       <c r="AE135" t="s">
         <v>34</v>
@@ -13087,8 +13147,8 @@
       <c r="N136">
         <v>4</v>
       </c>
-      <c r="P136">
-        <v>16</v>
+      <c r="O136" t="s">
+        <v>22</v>
       </c>
       <c r="Q136" t="s">
         <v>33</v>
@@ -13122,6 +13182,9 @@
       </c>
       <c r="AB136">
         <v>4</v>
+      </c>
+      <c r="AC136" t="s">
+        <v>22</v>
       </c>
       <c r="AE136" t="s">
         <v>32</v>
@@ -13176,6 +13239,9 @@
       <c r="M137" t="s">
         <v>22</v>
       </c>
+      <c r="O137" t="s">
+        <v>22</v>
+      </c>
       <c r="Q137" t="s">
         <v>38</v>
       </c>
@@ -13192,6 +13258,9 @@
         <v>22</v>
       </c>
       <c r="AA137" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC137" t="s">
         <v>22</v>
       </c>
       <c r="AE137" t="s">
@@ -13250,6 +13319,9 @@
       <c r="N138">
         <v>4</v>
       </c>
+      <c r="O138" t="s">
+        <v>22</v>
+      </c>
       <c r="Q138" t="s">
         <v>32</v>
       </c>
@@ -13278,6 +13350,9 @@
         <v>32</v>
       </c>
       <c r="AA138" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC138" t="s">
         <v>22</v>
       </c>
       <c r="AE138" t="s">
@@ -13336,6 +13411,9 @@
       <c r="M139" t="s">
         <v>22</v>
       </c>
+      <c r="O139" t="s">
+        <v>22</v>
+      </c>
       <c r="Q139" t="s">
         <v>22</v>
       </c>
@@ -13352,6 +13430,9 @@
         <v>22</v>
       </c>
       <c r="AA139" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC139" t="s">
         <v>22</v>
       </c>
       <c r="AE139" t="s">
@@ -13410,6 +13491,9 @@
       <c r="N140">
         <v>4</v>
       </c>
+      <c r="O140" t="s">
+        <v>22</v>
+      </c>
       <c r="Q140" t="s">
         <v>32</v>
       </c>
@@ -13446,8 +13530,8 @@
       <c r="AB140">
         <v>4</v>
       </c>
-      <c r="AD140">
-        <v>12</v>
+      <c r="AC140" t="s">
+        <v>22</v>
       </c>
       <c r="AE140" t="s">
         <v>32</v>
@@ -13517,6 +13601,9 @@
       <c r="N141">
         <v>4</v>
       </c>
+      <c r="O141" t="s">
+        <v>22</v>
+      </c>
       <c r="Q141" t="s">
         <v>33</v>
       </c>
@@ -13552,6 +13639,9 @@
       </c>
       <c r="AB141">
         <v>4</v>
+      </c>
+      <c r="AC141" t="s">
+        <v>22</v>
       </c>
       <c r="AE141" t="s">
         <v>32</v>
@@ -13618,6 +13708,9 @@
       <c r="M142" t="s">
         <v>32</v>
       </c>
+      <c r="O142" t="s">
+        <v>22</v>
+      </c>
       <c r="Q142" t="s">
         <v>32</v>
       </c>
@@ -13653,6 +13746,9 @@
       </c>
       <c r="AB142">
         <v>2</v>
+      </c>
+      <c r="AC142" t="s">
+        <v>22</v>
       </c>
       <c r="AE142" t="s">
         <v>32</v>
@@ -13722,6 +13818,9 @@
       <c r="N143">
         <v>4</v>
       </c>
+      <c r="O143" t="s">
+        <v>22</v>
+      </c>
       <c r="Q143" t="s">
         <v>32</v>
       </c>
@@ -13757,6 +13856,9 @@
       </c>
       <c r="AB143">
         <v>4</v>
+      </c>
+      <c r="AC143" t="s">
+        <v>22</v>
       </c>
       <c r="AE143" t="s">
         <v>33</v>
@@ -13817,6 +13919,9 @@
       <c r="M144" t="s">
         <v>22</v>
       </c>
+      <c r="O144" t="s">
+        <v>22</v>
+      </c>
       <c r="Q144" t="s">
         <v>33</v>
       </c>
@@ -13852,6 +13957,9 @@
       </c>
       <c r="AB144">
         <v>4</v>
+      </c>
+      <c r="AC144" t="s">
+        <v>22</v>
       </c>
       <c r="AE144" t="s">
         <v>32</v>
@@ -13921,6 +14029,9 @@
       <c r="N145">
         <v>4</v>
       </c>
+      <c r="O145" t="s">
+        <v>22</v>
+      </c>
       <c r="Q145" t="s">
         <v>32</v>
       </c>
@@ -13954,8 +14065,8 @@
       <c r="AA145" t="s">
         <v>32</v>
       </c>
-      <c r="AD145">
-        <v>16</v>
+      <c r="AC145" t="s">
+        <v>22</v>
       </c>
       <c r="AE145" t="s">
         <v>33</v>
@@ -14025,6 +14136,9 @@
       <c r="N146">
         <v>4</v>
       </c>
+      <c r="O146" t="s">
+        <v>22</v>
+      </c>
       <c r="Q146" t="s">
         <v>32</v>
       </c>
@@ -14060,6 +14174,9 @@
       </c>
       <c r="AB146">
         <v>4</v>
+      </c>
+      <c r="AC146" t="s">
+        <v>22</v>
       </c>
       <c r="AE146" t="s">
         <v>32</v>
@@ -14129,6 +14246,9 @@
       <c r="N147">
         <v>3.5</v>
       </c>
+      <c r="O147" t="s">
+        <v>22</v>
+      </c>
       <c r="Q147" t="s">
         <v>33</v>
       </c>
@@ -14154,6 +14274,9 @@
         <v>22</v>
       </c>
       <c r="AA147" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC147" t="s">
         <v>22</v>
       </c>
       <c r="AE147" t="s">
@@ -14212,6 +14335,9 @@
       <c r="N148">
         <v>4</v>
       </c>
+      <c r="O148" t="s">
+        <v>22</v>
+      </c>
       <c r="Q148" t="s">
         <v>33</v>
       </c>
@@ -14247,6 +14373,9 @@
       </c>
       <c r="AB148">
         <v>4</v>
+      </c>
+      <c r="AC148" t="s">
+        <v>22</v>
       </c>
       <c r="AE148" t="s">
         <v>32</v>
@@ -14316,6 +14445,9 @@
       <c r="N149">
         <v>4</v>
       </c>
+      <c r="O149" t="s">
+        <v>22</v>
+      </c>
       <c r="Q149" t="s">
         <v>32</v>
       </c>
@@ -14351,6 +14483,9 @@
       </c>
       <c r="AB149">
         <v>4</v>
+      </c>
+      <c r="AC149" t="s">
+        <v>22</v>
       </c>
       <c r="AE149" t="s">
         <v>33</v>
@@ -14420,6 +14555,9 @@
       <c r="N150">
         <v>2</v>
       </c>
+      <c r="O150" t="s">
+        <v>22</v>
+      </c>
       <c r="Q150" t="s">
         <v>32</v>
       </c>
@@ -14456,8 +14594,8 @@
       <c r="AB150">
         <v>4</v>
       </c>
-      <c r="AD150">
-        <v>16</v>
+      <c r="AC150" t="s">
+        <v>22</v>
       </c>
       <c r="AE150" t="s">
         <v>33</v>
@@ -14509,15 +14647,15 @@
       <c r="I151" t="s">
         <v>38</v>
       </c>
-      <c r="J151">
-        <v>4</v>
-      </c>
       <c r="K151" t="s">
         <v>38</v>
       </c>
       <c r="M151" t="s">
         <v>38</v>
       </c>
+      <c r="O151" t="s">
+        <v>22</v>
+      </c>
       <c r="Q151" t="s">
         <v>38</v>
       </c>
@@ -14534,6 +14672,9 @@
         <v>22</v>
       </c>
       <c r="AA151" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC151" t="s">
         <v>22</v>
       </c>
       <c r="AE151" t="s">
@@ -14589,8 +14730,8 @@
       <c r="N152">
         <v>4</v>
       </c>
-      <c r="P152">
-        <v>12</v>
+      <c r="O152" t="s">
+        <v>22</v>
       </c>
       <c r="Q152" t="s">
         <v>32</v>
@@ -14628,8 +14769,8 @@
       <c r="AB152">
         <v>4</v>
       </c>
-      <c r="AD152">
-        <v>8</v>
+      <c r="AC152" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
